--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A2221D9-F3AA-46A0-9B23-DC09A94A7AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E321B-237C-4176-8D79-ED75B64C3F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3427" yWindow="2970" windowWidth="21601" windowHeight="11423" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Qiosen &amp; Nathalie</t>
+  </si>
+  <si>
+    <t>Gabriel &amp; Jessica</t>
   </si>
 </sst>
 </file>
@@ -271,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{94C3C80C-DB4B-4FA6-8C1D-5ABB437D91AA}" name="Name"/>
     <tableColumn id="2" xr3:uid="{51CB0A71-8BC2-48E1-834D-5DE3D0D70CDC}" name="Artist1"/>
@@ -600,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -958,6 +961,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E321B-237C-4176-8D79-ED75B64C3F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F8AE7-5C81-4027-AD58-9938151EC4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Gabriel &amp; Jessica</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Pierre &amp; Laura</t>
   </si>
 </sst>
 </file>
@@ -274,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0">
-  <autoFilter ref="A1:D29" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{94C3C80C-DB4B-4FA6-8C1D-5ABB437D91AA}" name="Name"/>
     <tableColumn id="2" xr3:uid="{51CB0A71-8BC2-48E1-834D-5DE3D0D70CDC}" name="Artist1"/>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -971,6 +977,34 @@
       <c r="C29" t="s">
         <v>53</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F8AE7-5C81-4027-AD58-9938151EC4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FAC30-2D24-42A3-8E50-271A2DE21DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -80,15 +80,9 @@
     <t>Pebbles</t>
   </si>
   <si>
-    <t>Andre &amp; Aurora</t>
-  </si>
-  <si>
     <t>Andre L Maingot</t>
   </si>
   <si>
-    <t>Aurora Maiorano</t>
-  </si>
-  <si>
     <t>Elijah</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>Beth Miriam</t>
   </si>
   <si>
-    <t>Bryan Wong</t>
-  </si>
-  <si>
     <t>Camy</t>
   </si>
   <si>
@@ -158,18 +149,9 @@
     <t>Gabriel Bravo Rivera</t>
   </si>
   <si>
-    <t>Grabriel HappyFeet</t>
-  </si>
-  <si>
-    <t>Sirran</t>
-  </si>
-  <si>
     <t>Sirran Elves</t>
   </si>
   <si>
-    <t>Marky Mark</t>
-  </si>
-  <si>
     <t>Pierre Henry</t>
   </si>
   <si>
@@ -225,6 +207,24 @@
   </si>
   <si>
     <t>Pierre &amp; Laura</t>
+  </si>
+  <si>
+    <t>Andre &amp; Katerina</t>
+  </si>
+  <si>
+    <t>Flame Luconi</t>
+  </si>
+  <si>
+    <t>Marky Marc</t>
+  </si>
+  <si>
+    <t>Gabriel HappyFeet</t>
+  </si>
+  <si>
+    <t>Ramiro Zapata</t>
+  </si>
+  <si>
+    <t>Dani K</t>
   </si>
 </sst>
 </file>
@@ -280,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{94C3C80C-DB4B-4FA6-8C1D-5ABB437D91AA}" name="Name"/>
     <tableColumn id="2" xr3:uid="{51CB0A71-8BC2-48E1-834D-5DE3D0D70CDC}" name="Artist1"/>
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -692,13 +692,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -786,13 +786,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -825,10 +825,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -891,10 +891,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -902,13 +905,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -916,13 +919,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -930,13 +933,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -944,13 +947,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -958,10 +958,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -969,13 +972,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -983,10 +983,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -994,15 +997,23 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
     </row>

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FAC30-2D24-42A3-8E50-271A2DE21DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD9B83-CFD6-4160-B928-484198C8C678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Andre L Maingot</t>
   </si>
   <si>
-    <t>Elijah</t>
-  </si>
-  <si>
     <t>Elijah Tella</t>
   </si>
   <si>
@@ -225,6 +222,12 @@
   </si>
   <si>
     <t>Dani K</t>
+  </si>
+  <si>
+    <t>Elijah &amp; Flame</t>
+  </si>
+  <si>
+    <t>Bryan Wong</t>
   </si>
 </sst>
 </file>
@@ -280,8 +283,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0">
+  <autoFilter ref="A1:D35" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
+    <sortCondition ref="A2:A35"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{94C3C80C-DB4B-4FA6-8C1D-5ABB437D91AA}" name="Name"/>
     <tableColumn id="2" xr3:uid="{51CB0A71-8BC2-48E1-834D-5DE3D0D70CDC}" name="Artist1"/>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -639,13 +645,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -653,10 +659,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -664,13 +673,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -678,13 +684,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -692,13 +698,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -706,10 +709,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -717,10 +720,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -728,10 +734,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -739,10 +745,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -750,10 +759,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -761,10 +773,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -772,13 +784,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -786,13 +798,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -800,13 +812,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -814,10 +823,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -825,7 +837,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -836,10 +848,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -847,10 +862,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -858,10 +876,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -869,10 +887,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -880,10 +898,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -891,13 +909,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -905,13 +923,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -919,13 +934,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -933,13 +945,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -947,10 +956,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -958,13 +970,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -972,10 +981,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -983,13 +992,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -997,10 +1003,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1008,12 +1017,34 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
     </row>

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD9B83-CFD6-4160-B928-484198C8C678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF906C16-037F-4C17-A190-8AC20E036EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Qiosen Feng</t>
   </si>
   <si>
-    <t>Qiosen &amp; Nathalie</t>
-  </si>
-  <si>
     <t>Gabriel &amp; Jessica</t>
   </si>
   <si>
@@ -228,6 +225,21 @@
   </si>
   <si>
     <t>Bryan Wong</t>
+  </si>
+  <si>
+    <t>Camy &amp; Bryan</t>
+  </si>
+  <si>
+    <t>Natalie Mkrtchyan</t>
+  </si>
+  <si>
+    <t>Qiosen &amp; Natalie</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Peynao &amp; Debora</t>
   </si>
 </sst>
 </file>
@@ -283,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D35" totalsRowShown="0">
-  <autoFilter ref="A1:D35" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0">
+  <autoFilter ref="A1:D38" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
     <sortCondition ref="A2:A35"/>
   </sortState>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -659,7 +671,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -673,10 +685,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -698,10 +710,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -734,10 +746,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -798,13 +810,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -815,7 +827,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -823,7 +835,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -837,7 +849,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -923,10 +935,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -956,7 +968,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -981,21 +993,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>51</v>
       </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1045,6 +1060,45 @@
         <v>16</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
     </row>

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF906C16-037F-4C17-A190-8AC20E036EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD4E06-9BE1-4549-9330-F1163B3817F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Beth Miriam</t>
-  </si>
-  <si>
-    <t>Camy</t>
   </si>
   <si>
     <t>Camy Marina</t>
@@ -295,10 +292,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0">
-  <autoFilter ref="A1:D38" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
-    <sortCondition ref="A2:A35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D36" totalsRowShown="0">
+  <autoFilter ref="A1:D36" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{94C3C80C-DB4B-4FA6-8C1D-5ABB437D91AA}" name="Name"/>
@@ -627,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -671,7 +668,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -685,10 +682,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -710,10 +707,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -732,13 +732,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -746,10 +746,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -757,13 +760,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -771,13 +771,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -785,10 +785,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -796,13 +799,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -810,13 +810,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -824,10 +824,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -849,10 +849,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -860,13 +863,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -874,13 +874,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -888,10 +885,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -899,10 +896,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -921,13 +921,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -935,10 +932,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -946,10 +943,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -968,13 +968,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1018,13 +1018,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1032,10 +1029,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1043,10 +1040,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1065,40 +1065,15 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37">
         <v>1</v>
       </c>
     </row>

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD4E06-9BE1-4549-9330-F1163B3817F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5591495-F368-493A-9FFD-12A333D7F408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
@@ -194,9 +194,6 @@
     <t>Gabriel &amp; Jessica</t>
   </si>
   <si>
-    <t>Ariana</t>
-  </si>
-  <si>
     <t>Pierre &amp; Laura</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>Peynao &amp; Debora</t>
+  </si>
+  <si>
+    <t>Ariana Zuna Ortega</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -968,13 +968,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5591495-F368-493A-9FFD-12A333D7F408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1D0A48-4492-4D54-AA48-7D546FC5C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Ariana Zuna Ortega</t>
+  </si>
+  <si>
+    <t>Ramiro &amp; Natalie</t>
   </si>
 </sst>
 </file>
@@ -292,10 +295,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D36" totalsRowShown="0">
-  <autoFilter ref="A1:D36" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
-    <sortCondition ref="A2:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0">
+  <autoFilter ref="A1:D37" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{94C3C80C-DB4B-4FA6-8C1D-5ABB437D91AA}" name="Name"/>
@@ -624,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -668,24 +671,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -693,13 +696,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -707,13 +707,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -721,10 +721,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -732,13 +735,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -746,13 +749,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -760,10 +760,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -771,13 +774,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -785,13 +788,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -799,10 +799,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -810,13 +813,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -824,10 +827,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -835,13 +838,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -849,13 +852,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -863,10 +863,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -874,10 +877,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -885,10 +891,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -896,13 +902,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -910,10 +913,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -921,10 +924,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -932,10 +938,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -943,13 +949,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -957,10 +960,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -968,13 +974,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -982,10 +985,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -993,13 +999,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1007,10 +1010,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1018,10 +1024,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1029,10 +1038,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1040,13 +1049,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1054,10 +1063,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1065,15 +1074,23 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
     </row>

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1D0A48-4492-4D54-AA48-7D546FC5C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39A992D-F879-41BF-ACF5-531401C40430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Ramiro &amp; Natalie</t>
+  </si>
+  <si>
+    <t>Camy</t>
   </si>
 </sst>
 </file>
@@ -295,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0">
-  <autoFilter ref="A1:D37" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0">
+  <autoFilter ref="A1:D38" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
     <sortCondition ref="A2:A36"/>
   </sortState>
@@ -627,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1094,6 +1097,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39A992D-F879-41BF-ACF5-531401C40430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286D2947-359B-484A-A933-F1FFB799E565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
+    <workbookView xWindow="3630" yWindow="2565" windowWidth="21337" windowHeight="11423" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -298,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0">
-  <autoFilter ref="A1:D38" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D39" totalsRowShown="0">
+  <autoFilter ref="A1:D39" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
     <sortCondition ref="A2:A36"/>
   </sortState>
@@ -630,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1108,6 +1108,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286D2947-359B-484A-A933-F1FFB799E565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD062C-7D82-4198-8B37-83DD6674A043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2565" windowWidth="21337" windowHeight="11423" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
+    <workbookView xWindow="4740" yWindow="1995" windowWidth="21338" windowHeight="11422" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Gabriel &amp; Jessica</t>
   </si>
   <si>
-    <t>Pierre &amp; Laura</t>
-  </si>
-  <si>
     <t>Andre &amp; Katerina</t>
   </si>
   <si>
@@ -243,6 +240,12 @@
   </si>
   <si>
     <t>Camy</t>
+  </si>
+  <si>
+    <t>Laurita</t>
+  </si>
+  <si>
+    <t>Pierre &amp; Laurita</t>
   </si>
 </sst>
 </file>
@@ -632,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -674,7 +677,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -685,7 +688,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -699,10 +702,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -724,13 +727,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -752,10 +755,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -816,13 +819,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -855,7 +858,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -905,7 +908,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -941,10 +944,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -963,7 +966,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -988,7 +991,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -1013,13 +1016,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1027,13 +1030,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1041,10 +1044,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1099,7 +1102,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>

--- a/sql/act.xlsx
+++ b/sql/act.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD062C-7D82-4198-8B37-83DD6674A043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD8BC7-62B0-4D00-AFC4-73AF199B465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1995" windowWidth="21338" windowHeight="11422" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{6A94DAEF-3FB4-4FEE-B54A-43E7FD304352}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Flame Luconi</t>
   </si>
   <si>
-    <t>Marky Marc</t>
-  </si>
-  <si>
     <t>Gabriel HappyFeet</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
   </si>
   <si>
     <t>Qiosen &amp; Natalie</t>
-  </si>
-  <si>
-    <t>Andre</t>
   </si>
   <si>
     <t>Peynao &amp; Debora</t>
@@ -301,10 +295,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D39" totalsRowShown="0">
-  <autoFilter ref="A1:D39" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
-    <sortCondition ref="A2:A36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0">
+  <autoFilter ref="A1:D37" xr:uid="{7460610E-3C31-4E1F-A627-9C56A73266EE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{94C3C80C-DB4B-4FA6-8C1D-5ABB437D91AA}" name="Name"/>
@@ -633,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB071C-8639-415D-8B4F-FD65D30C1200}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -677,24 +671,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -702,10 +696,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -713,13 +710,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -727,13 +724,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -741,13 +738,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -755,10 +749,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -766,13 +763,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -780,13 +777,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -794,10 +788,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -805,13 +802,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -819,12 +816,9 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
         <v>53</v>
       </c>
       <c r="D14">
@@ -833,10 +827,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -844,24 +841,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -869,13 +866,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -883,13 +880,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -897,10 +891,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -908,10 +902,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -919,10 +913,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -930,13 +927,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -944,10 +938,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -955,10 +952,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -966,13 +963,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -980,10 +977,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -991,13 +988,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1005,10 +1002,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1016,13 +1016,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1030,13 +1027,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1044,10 +1041,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1055,13 +1052,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1069,10 +1063,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1080,10 +1074,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1091,34 +1085,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38">
         <v>1</v>
       </c>
     </row>
@@ -1128,4 +1100,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{dd2e4901-b5ad-42ae-9e9d-f456e52148af}" enabled="1" method="Privileged" siteId="{3b07dc1f-22e7-4be1-ac66-a88bf3550222}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>